--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1545,62 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-01-30_10-44-54</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21.68429819460582</v>
+      </c>
+      <c r="D22" t="n">
+        <v>256</v>
+      </c>
+      <c r="E22" t="n">
+        <v>240</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="L22" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,6 +1601,62 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-01-30_11-29-35</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>24.04378271579213</v>
+      </c>
+      <c r="D23" t="n">
+        <v>256</v>
+      </c>
+      <c r="E23" t="n">
+        <v>240</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="L23" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,6 +1657,958 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-01-30_21-48-59</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19.94862215844428</v>
+      </c>
+      <c r="D24" t="n">
+        <v>256</v>
+      </c>
+      <c r="E24" t="n">
+        <v>240</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-01-30_21-52-35</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>17.15621098085461</v>
+      </c>
+      <c r="D25" t="n">
+        <v>256</v>
+      </c>
+      <c r="E25" t="n">
+        <v>240</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-02-14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>18.98337222151169</v>
+      </c>
+      <c r="D26" t="n">
+        <v>256</v>
+      </c>
+      <c r="E26" t="n">
+        <v>240</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-05-45</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>16.1120121539896</v>
+      </c>
+      <c r="D27" t="n">
+        <v>256</v>
+      </c>
+      <c r="E27" t="n">
+        <v>240</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-09-05</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>18.25887222374716</v>
+      </c>
+      <c r="D28" t="n">
+        <v>256</v>
+      </c>
+      <c r="E28" t="n">
+        <v>240</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-12-16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>16.3171670809967</v>
+      </c>
+      <c r="D29" t="n">
+        <v>256</v>
+      </c>
+      <c r="E29" t="n">
+        <v>240</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-15-31</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>17.77561945602976</v>
+      </c>
+      <c r="D30" t="n">
+        <v>256</v>
+      </c>
+      <c r="E30" t="n">
+        <v>240</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-18-42</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>19.670399554694</v>
+      </c>
+      <c r="D31" t="n">
+        <v>256</v>
+      </c>
+      <c r="E31" t="n">
+        <v>240</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-21-59</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15.33009222371464</v>
+      </c>
+      <c r="D32" t="n">
+        <v>256</v>
+      </c>
+      <c r="E32" t="n">
+        <v>240</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-27-32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9.848246666488055</v>
+      </c>
+      <c r="D33" t="n">
+        <v>256</v>
+      </c>
+      <c r="E33" t="n">
+        <v>240</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-01-30_22-59-14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9.865047255843116</v>
+      </c>
+      <c r="D34" t="n">
+        <v>256</v>
+      </c>
+      <c r="E34" t="n">
+        <v>240</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-01-30_23-29-49</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10.02450350677795</v>
+      </c>
+      <c r="D35" t="n">
+        <v>256</v>
+      </c>
+      <c r="E35" t="n">
+        <v>240</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="L35" t="n">
+        <v>100</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-01-31_00-01-19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8.420966670198261</v>
+      </c>
+      <c r="D36" t="n">
+        <v>256</v>
+      </c>
+      <c r="E36" t="n">
+        <v>240</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-01-31_00-34-35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8.345141052008998</v>
+      </c>
+      <c r="D37" t="n">
+        <v>256</v>
+      </c>
+      <c r="E37" t="n">
+        <v>240</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-01-31_01-07-17</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7.787556511712789</v>
+      </c>
+      <c r="D38" t="n">
+        <v>256</v>
+      </c>
+      <c r="E38" t="n">
+        <v>240</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="L38" t="n">
+        <v>100</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-01-31_01-42-37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9.259947631785131</v>
+      </c>
+      <c r="D39" t="n">
+        <v>256</v>
+      </c>
+      <c r="E39" t="n">
+        <v>240</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-01-31_02-16-38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8.860990528525841</v>
+      </c>
+      <c r="D40" t="n">
+        <v>256</v>
+      </c>
+      <c r="E40" t="n">
+        <v>240</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="L40" t="n">
+        <v>100</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2609,6 +2609,1406 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-01-31_10-22-47</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>100</v>
+      </c>
+      <c r="D41" t="n">
+        <v>256</v>
+      </c>
+      <c r="E41" t="n">
+        <v>240</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L41" t="n">
+        <v>100</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-01-31_10-58-58</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>25.33598195540653</v>
+      </c>
+      <c r="D42" t="n">
+        <v>256</v>
+      </c>
+      <c r="E42" t="n">
+        <v>240</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-01-31_11-33-48</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>14.37287402391169</v>
+      </c>
+      <c r="D43" t="n">
+        <v>256</v>
+      </c>
+      <c r="E43" t="n">
+        <v>240</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L43" t="n">
+        <v>100</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-01-31_12-07-08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>22.13932202473597</v>
+      </c>
+      <c r="D44" t="n">
+        <v>256</v>
+      </c>
+      <c r="E44" t="n">
+        <v>240</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-01-31_12-41-45</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10.5561037053014</v>
+      </c>
+      <c r="D45" t="n">
+        <v>256</v>
+      </c>
+      <c r="E45" t="n">
+        <v>240</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-01-31_13-15-58</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8.555961754954483</v>
+      </c>
+      <c r="D46" t="n">
+        <v>256</v>
+      </c>
+      <c r="E46" t="n">
+        <v>240</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="L46" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-01-31_13-51-19</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>9.227359795014682</v>
+      </c>
+      <c r="D47" t="n">
+        <v>256</v>
+      </c>
+      <c r="E47" t="n">
+        <v>240</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="L47" t="n">
+        <v>100</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-01-31_14-26-17</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>9.038309304748603</v>
+      </c>
+      <c r="D48" t="n">
+        <v>256</v>
+      </c>
+      <c r="E48" t="n">
+        <v>240</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="L48" t="n">
+        <v>100</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-01-31_17-50-52</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29.2199073816907</v>
+      </c>
+      <c r="D49" t="n">
+        <v>256</v>
+      </c>
+      <c r="E49" t="n">
+        <v>240</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="L49" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-01-31_18-26-19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>13.31176966117834</v>
+      </c>
+      <c r="D50" t="n">
+        <v>256</v>
+      </c>
+      <c r="E50" t="n">
+        <v>240</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="L50" t="n">
+        <v>100</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-01-31_18-59-00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>11.60700933094427</v>
+      </c>
+      <c r="D51" t="n">
+        <v>256</v>
+      </c>
+      <c r="E51" t="n">
+        <v>240</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-01-31_19-31-40</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>9.793060616039146</v>
+      </c>
+      <c r="D52" t="n">
+        <v>256</v>
+      </c>
+      <c r="E52" t="n">
+        <v>240</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="L52" t="n">
+        <v>100</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-01-31_20-05-47</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.529175181499994</v>
+      </c>
+      <c r="D53" t="n">
+        <v>256</v>
+      </c>
+      <c r="E53" t="n">
+        <v>240</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-01-31_20-38-34</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>8.892177247313098</v>
+      </c>
+      <c r="D54" t="n">
+        <v>256</v>
+      </c>
+      <c r="E54" t="n">
+        <v>240</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="L54" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-01-31_21-13-22</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>8.96272041371607</v>
+      </c>
+      <c r="D55" t="n">
+        <v>256</v>
+      </c>
+      <c r="E55" t="n">
+        <v>240</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="L55" t="n">
+        <v>100</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-01-31_21-47-42</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8.498976420615278</v>
+      </c>
+      <c r="D56" t="n">
+        <v>256</v>
+      </c>
+      <c r="E56" t="n">
+        <v>240</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0.00085</v>
+      </c>
+      <c r="L56" t="n">
+        <v>100</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-01-31_23-40-36</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>9.174423425232002</v>
+      </c>
+      <c r="D57" t="n">
+        <v>256</v>
+      </c>
+      <c r="E57" t="n">
+        <v>240</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L57" t="n">
+        <v>300</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-02-01_01-25-22</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>9.397434484416188</v>
+      </c>
+      <c r="D58" t="n">
+        <v>256</v>
+      </c>
+      <c r="E58" t="n">
+        <v>240</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="L58" t="n">
+        <v>300</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-02-01_03-05-42</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>8.736420956356543</v>
+      </c>
+      <c r="D59" t="n">
+        <v>256</v>
+      </c>
+      <c r="E59" t="n">
+        <v>240</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0.00115</v>
+      </c>
+      <c r="L59" t="n">
+        <v>300</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-02-01_04-43-13</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>8.818927426184718</v>
+      </c>
+      <c r="D60" t="n">
+        <v>256</v>
+      </c>
+      <c r="E60" t="n">
+        <v>240</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="L60" t="n">
+        <v>300</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-02-01_09-26-05</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8.986265597412245</v>
+      </c>
+      <c r="D61" t="n">
+        <v>256</v>
+      </c>
+      <c r="E61" t="n">
+        <v>240</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L61" t="n">
+        <v>100</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-02-01_09-57-55</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>8.372640027587078</v>
+      </c>
+      <c r="D62" t="n">
+        <v>256</v>
+      </c>
+      <c r="E62" t="n">
+        <v>240</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="L62" t="n">
+        <v>100</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-02-01_10-29-27</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8.795037683450952</v>
+      </c>
+      <c r="D63" t="n">
+        <v>256</v>
+      </c>
+      <c r="E63" t="n">
+        <v>240</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0.00115</v>
+      </c>
+      <c r="L63" t="n">
+        <v>100</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-02-01_10-58-38</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8.920619227910015</v>
+      </c>
+      <c r="D64" t="n">
+        <v>256</v>
+      </c>
+      <c r="E64" t="n">
+        <v>240</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-02-01_12-59-14</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>9.55155631096064</v>
+      </c>
+      <c r="D65" t="n">
+        <v>256</v>
+      </c>
+      <c r="E65" t="n">
+        <v>240</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L65" t="n">
+        <v>100</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Inclination</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4009,6 +4009,62 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-02-01_13-46-46</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2.976433194040855</v>
+      </c>
+      <c r="D66" t="n">
+        <v>256</v>
+      </c>
+      <c r="E66" t="n">
+        <v>240</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L66" t="n">
+        <v>10</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4065,6 +4065,174 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-02-01_13-54-50</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4.053362070521821</v>
+      </c>
+      <c r="D67" t="n">
+        <v>256</v>
+      </c>
+      <c r="E67" t="n">
+        <v>240</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L67" t="n">
+        <v>10</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-02-01_14-44-14</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2.740905338333926</v>
+      </c>
+      <c r="D68" t="n">
+        <v>256</v>
+      </c>
+      <c r="E68" t="n">
+        <v>240</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L68" t="n">
+        <v>100</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-02-01_16-34-40</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>100</v>
+      </c>
+      <c r="D69" t="n">
+        <v>256</v>
+      </c>
+      <c r="E69" t="n">
+        <v>240</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2402</v>
+      </c>
+      <c r="I69" t="n">
+        <v>601</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="L69" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,6 +4233,62 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-02-06_17-23-53</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>100</v>
+      </c>
+      <c r="D70" t="n">
+        <v>256</v>
+      </c>
+      <c r="E70" t="n">
+        <v>240</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2402</v>
+      </c>
+      <c r="I70" t="n">
+        <v>601</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="L70" t="n">
+        <v>100</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>angle</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4289,6 +4289,118 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-02-07_11-19-38</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>100</v>
+      </c>
+      <c r="D71" t="n">
+        <v>256</v>
+      </c>
+      <c r="E71" t="n">
+        <v>240</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2402</v>
+      </c>
+      <c r="I71" t="n">
+        <v>601</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L71" t="n">
+        <v>50</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>angle</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-02-07_11-28-40</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>100</v>
+      </c>
+      <c r="D72" t="n">
+        <v>256</v>
+      </c>
+      <c r="E72" t="n">
+        <v>240</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7199</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L72" t="n">
+        <v>50</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>angle</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4401,6 +4401,286 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-02-07_14-58-32</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>100</v>
+      </c>
+      <c r="D73" t="n">
+        <v>256</v>
+      </c>
+      <c r="E73" t="n">
+        <v>240</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-02-07_15-03-47</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>100</v>
+      </c>
+      <c r="D74" t="n">
+        <v>64</v>
+      </c>
+      <c r="E74" t="n">
+        <v>240</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-02-07_15-11-06</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>100</v>
+      </c>
+      <c r="D75" t="n">
+        <v>64</v>
+      </c>
+      <c r="E75" t="n">
+        <v>240</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-02-07_15-22-17</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>100</v>
+      </c>
+      <c r="D76" t="n">
+        <v>64</v>
+      </c>
+      <c r="E76" t="n">
+        <v>240</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L76" t="n">
+        <v>50</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-02-07_17-02-06</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>8.206933037988071</v>
+      </c>
+      <c r="D77" t="n">
+        <v>64</v>
+      </c>
+      <c r="E77" t="n">
+        <v>240</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L77" t="n">
+        <v>50</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4681,6 +4681,230 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-02-07_18-16-27</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+      <c r="D78" t="n">
+        <v>64</v>
+      </c>
+      <c r="E78" t="n">
+        <v>240</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-02-07_18-17-55</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>16.04455849220013</v>
+      </c>
+      <c r="D79" t="n">
+        <v>64</v>
+      </c>
+      <c r="E79" t="n">
+        <v>240</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L79" t="n">
+        <v>10</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-02-07_18-56-03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>100</v>
+      </c>
+      <c r="D80" t="n">
+        <v>64</v>
+      </c>
+      <c r="E80" t="n">
+        <v>240</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-02-07_18-57-12</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>14.53628270379428</v>
+      </c>
+      <c r="D81" t="n">
+        <v>64</v>
+      </c>
+      <c r="E81" t="n">
+        <v>240</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,6 +4905,118 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-02-07_20-58-08</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>100</v>
+      </c>
+      <c r="D82" t="n">
+        <v>64</v>
+      </c>
+      <c r="E82" t="n">
+        <v>240</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-02-07_21-02-34</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>9.322643510226545</v>
+      </c>
+      <c r="D83" t="n">
+        <v>64</v>
+      </c>
+      <c r="E83" t="n">
+        <v>240</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L83" t="n">
+        <v>50</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['Inclination', 'PA']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5017,6 +5017,58 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-02-08_00-31-48</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>100</v>
+      </c>
+      <c r="D84" t="n">
+        <v>256</v>
+      </c>
+      <c r="E84" t="n">
+        <v>240</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fc40fe49790&gt;</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,16 @@
           <t>para</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MAE inc</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MAE PA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -564,6 +574,8 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -614,6 +626,8 @@
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -664,6 +678,8 @@
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -714,6 +730,8 @@
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +782,8 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -814,6 +834,8 @@
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -864,6 +886,8 @@
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -916,6 +940,8 @@
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -968,6 +994,8 @@
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1020,6 +1048,8 @@
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1072,6 +1102,8 @@
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1124,6 +1156,8 @@
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1176,6 +1210,8 @@
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1228,6 +1264,8 @@
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1280,6 +1318,8 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1332,6 +1372,8 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1384,6 +1426,8 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1436,6 +1480,8 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1488,6 +1534,8 @@
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1544,6 +1592,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1600,6 +1650,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1656,6 +1708,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1712,6 +1766,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1768,6 +1824,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1824,6 +1882,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1880,6 +1940,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1936,6 +1998,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1992,6 +2056,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2048,6 +2114,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2104,6 +2172,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2160,6 +2230,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2216,6 +2288,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2272,6 +2346,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2328,6 +2404,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2462,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2440,6 +2520,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2496,6 +2578,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2552,6 +2636,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2608,6 +2694,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2664,6 +2752,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2720,6 +2810,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2776,6 +2868,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2832,6 +2926,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2888,6 +2984,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2944,6 +3042,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3000,6 +3100,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3056,6 +3158,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3112,6 +3216,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3168,6 +3274,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3224,6 +3332,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3280,6 +3390,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3336,6 +3448,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3392,6 +3506,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3448,6 +3564,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3504,6 +3622,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3560,6 +3680,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3616,6 +3738,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3672,6 +3796,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3728,6 +3854,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3784,6 +3912,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3840,6 +3970,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3896,6 +4028,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3952,6 +4086,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4008,6 +4144,8 @@
           <t>Inclination</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4064,6 +4202,8 @@
           <t>size</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4120,6 +4260,8 @@
           <t>size</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4176,6 +4318,8 @@
           <t>size</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4232,6 +4376,8 @@
           <t>PA</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4288,6 +4434,8 @@
           <t>PA</t>
         </is>
       </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4344,6 +4492,8 @@
           <t>PA</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4400,6 +4550,8 @@
           <t>PA</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4456,6 +4608,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4512,6 +4666,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4568,6 +4724,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4624,6 +4782,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4680,6 +4840,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4736,6 +4898,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4792,6 +4956,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4848,6 +5014,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4904,6 +5072,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4960,6 +5130,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5016,6 +5188,8 @@
           <t>['Inclination', 'PA']</t>
         </is>
       </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5068,6 +5242,64 @@
           <t>Inc, PA</t>
         </is>
       </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-02-08_01-04-18</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>256</v>
+      </c>
+      <c r="E85" t="n">
+        <v>240</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7ff630bb8790&gt;</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>45.49684161695338</v>
+      </c>
+      <c r="R85" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5301,6 +5301,174 @@
         <v>100</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-02-08_01-41-28</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>256</v>
+      </c>
+      <c r="E86" t="n">
+        <v>240</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f224fc23790&gt;</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>45.22645961748773</v>
+      </c>
+      <c r="R86" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-02-08_01-44-02</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>256</v>
+      </c>
+      <c r="E87" t="n">
+        <v>240</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f358dd77790&gt;</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>44.02657647508627</v>
+      </c>
+      <c r="R87" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-02-08_01-46-18</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>256</v>
+      </c>
+      <c r="E88" t="n">
+        <v>240</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fc5b4023790&gt;</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>45.44852697306812</v>
+      </c>
+      <c r="R88" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5469,6 +5469,118 @@
         <v>100</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-02-08_10-50-47</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>300</v>
+      </c>
+      <c r="E89" t="n">
+        <v>240</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="L89" t="n">
+        <v>40</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f3eb4db7790&gt;</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>10.86585421038256</v>
+      </c>
+      <c r="R89" t="n">
+        <v>15.05117511749268</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-02-08_11-19-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>300</v>
+      </c>
+      <c r="E90" t="n">
+        <v>240</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L90" t="n">
+        <v>40</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>12.30303596047794</v>
+      </c>
+      <c r="R90" t="n">
+        <v>12.09208218256632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5581,6 +5581,230 @@
         <v>12.09208218256632</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-02-08_11-45-34</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>300</v>
+      </c>
+      <c r="E91" t="n">
+        <v>240</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="L91" t="n">
+        <v>40</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>11.26241012048245</v>
+      </c>
+      <c r="R91" t="n">
+        <v>12.01506121953329</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-02-08_12-11-51</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>300</v>
+      </c>
+      <c r="E92" t="n">
+        <v>240</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="L92" t="n">
+        <v>40</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>9.875098767211778</v>
+      </c>
+      <c r="R92" t="n">
+        <v>13.20014158884684</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-02-08_12-37-17</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>300</v>
+      </c>
+      <c r="E93" t="n">
+        <v>240</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="L93" t="n">
+        <v>40</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>9.215770319219963</v>
+      </c>
+      <c r="R93" t="n">
+        <v>12.68076817194621</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-02-08_13-03-37</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>300</v>
+      </c>
+      <c r="E94" t="n">
+        <v>240</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.00185</v>
+      </c>
+      <c r="L94" t="n">
+        <v>40</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>11.59768768208935</v>
+      </c>
+      <c r="R94" t="n">
+        <v>12.97266658147176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5805,6 +5805,342 @@
         <v>12.97266658147176</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-02-08_13-28-26</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>300</v>
+      </c>
+      <c r="E95" t="n">
+        <v>240</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="L95" t="n">
+        <v>40</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>10.43486349802303</v>
+      </c>
+      <c r="R95" t="n">
+        <v>12.15075985590617</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-02-08_13-54-19</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>300</v>
+      </c>
+      <c r="E96" t="n">
+        <v>240</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L96" t="n">
+        <v>40</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>11.12324332555841</v>
+      </c>
+      <c r="R96" t="n">
+        <v>13.71277729670207</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-02-08_14-19-57</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>300</v>
+      </c>
+      <c r="E97" t="n">
+        <v>240</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="L97" t="n">
+        <v>40</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>11.03355497472426</v>
+      </c>
+      <c r="R97" t="n">
+        <v>13.01871665318807</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-02-08_14-46-26</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>300</v>
+      </c>
+      <c r="E98" t="n">
+        <v>240</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.00115</v>
+      </c>
+      <c r="L98" t="n">
+        <v>40</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>10.65435675854953</v>
+      </c>
+      <c r="R98" t="n">
+        <v>11.69501034418742</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-02-08_15-12-38</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>300</v>
+      </c>
+      <c r="E99" t="n">
+        <v>240</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="L99" t="n">
+        <v>40</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>10.60747362956091</v>
+      </c>
+      <c r="R99" t="n">
+        <v>13.13063192367554</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-02-08_15-38-14</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>300</v>
+      </c>
+      <c r="E100" t="n">
+        <v>240</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="L100" t="n">
+        <v>40</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f61c8cf7790&gt;</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>10.86266818877463</v>
+      </c>
+      <c r="R100" t="n">
+        <v>14.40943018595378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6141,6 +6141,230 @@
         <v>14.40943018595378</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-02-08_17-02-08</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>300</v>
+      </c>
+      <c r="E101" t="n">
+        <v>240</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="L101" t="n">
+        <v>40</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f46b1edc820&gt;</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>11.56719896187396</v>
+      </c>
+      <c r="R101" t="n">
+        <v>12.27348152796427</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-02-08_17-59-49</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>300</v>
+      </c>
+      <c r="E102" t="n">
+        <v>240</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="L102" t="n">
+        <v>40</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f6d6ecb7820&gt;</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>32.44831480646504</v>
+      </c>
+      <c r="R102" t="n">
+        <v>15.01512432098389</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-02-08_18-26-35</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>300</v>
+      </c>
+      <c r="E103" t="n">
+        <v>240</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="L103" t="n">
+        <v>40</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f6d6ecb7820&gt;</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>14.8382081974889</v>
+      </c>
+      <c r="R103" t="n">
+        <v>14.40475511550903</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-02-08_18-52-40</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>300</v>
+      </c>
+      <c r="E104" t="n">
+        <v>240</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="L104" t="n">
+        <v>40</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f6d6ecb7820&gt;</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>12.49297357319992</v>
+      </c>
+      <c r="R104" t="n">
+        <v>14.6106546719869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6365,6 +6365,174 @@
         <v>14.6106546719869</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-02-08_20-08-48</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>300</v>
+      </c>
+      <c r="E105" t="n">
+        <v>240</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="L105" t="n">
+        <v>40</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fdfbeaf79d0&gt;</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>10.78721762603184</v>
+      </c>
+      <c r="R105" t="n">
+        <v>14.61560487747192</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-02-08_20-35-39</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>300</v>
+      </c>
+      <c r="E106" t="n">
+        <v>240</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="L106" t="n">
+        <v>40</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fdfbeaf79d0&gt;</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>10.95588275939061</v>
+      </c>
+      <c r="R106" t="n">
+        <v>13.64207983016968</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-02-08_21-14-51</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>300</v>
+      </c>
+      <c r="E107" t="n">
+        <v>240</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="L107" t="n">
+        <v>40</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f051755c820&gt;</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>11.20659418137833</v>
+      </c>
+      <c r="R107" t="n">
+        <v>15.16600131988525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6533,6 +6533,174 @@
         <v>15.16600131988525</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-02-08_21-41-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>300</v>
+      </c>
+      <c r="E108" t="n">
+        <v>240</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="L108" t="n">
+        <v>40</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f051755c820&gt;</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>11.73695270229259</v>
+      </c>
+      <c r="R108" t="n">
+        <v>13.99131949742635</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-02-08_22-08-12</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>300</v>
+      </c>
+      <c r="E109" t="n">
+        <v>240</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>0.00085</v>
+      </c>
+      <c r="L109" t="n">
+        <v>40</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f051755c820&gt;</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>11.09748892831749</v>
+      </c>
+      <c r="R109" t="n">
+        <v>14.17590999603271</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-02-08_22-34-16</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>300</v>
+      </c>
+      <c r="E110" t="n">
+        <v>240</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L110" t="n">
+        <v>40</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f051755c820&gt;</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>100</v>
+      </c>
+      <c r="R110" t="n">
+        <v>16.66668939590454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6701,6 +6701,62 @@
         <v>16.66668939590454</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-02-08_23-16-35</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>300</v>
+      </c>
+      <c r="E111" t="n">
+        <v>240</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="L111" t="n">
+        <v>40</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f28ce59c820&gt;</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>15.41234105117578</v>
+      </c>
+      <c r="R111" t="n">
+        <v>15.35882107416789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6757,6 +6757,62 @@
         <v>15.35882107416789</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-02-08_23-43-02</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>300</v>
+      </c>
+      <c r="E112" t="n">
+        <v>240</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L112" t="n">
+        <v>40</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f28ce59c820&gt;</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>13.42205234743514</v>
+      </c>
+      <c r="R112" t="n">
+        <v>13.94368473688761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6813,6 +6813,478 @@
         <v>13.94368473688761</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-02-09_00-09-34</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>300</v>
+      </c>
+      <c r="E113" t="n">
+        <v>240</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="L113" t="n">
+        <v>40</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7f28ce59c820&gt;</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>12.20815020528406</v>
+      </c>
+      <c r="R113" t="n">
+        <v>14.07270797093709</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-02-09_00-41-09</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>300</v>
+      </c>
+      <c r="E114" t="n">
+        <v>240</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L114" t="n">
+        <v>100</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>40.42421398099334</v>
+      </c>
+      <c r="R114" t="n">
+        <v>15.92520093917847</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-02-09_01-54-07</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>300</v>
+      </c>
+      <c r="E115" t="n">
+        <v>240</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="L115" t="n">
+        <v>100</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>16.52110746089415</v>
+      </c>
+      <c r="R115" t="n">
+        <v>14.3174688021342</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-02-09_03-06-50</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>300</v>
+      </c>
+      <c r="E116" t="n">
+        <v>240</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L116" t="n">
+        <v>100</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>12.72836076776672</v>
+      </c>
+      <c r="R116" t="n">
+        <v>13.9385134379069</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-02-09_04-17-53</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>300</v>
+      </c>
+      <c r="E117" t="n">
+        <v>240</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="L117" t="n">
+        <v>100</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>11.42276851133289</v>
+      </c>
+      <c r="R117" t="n">
+        <v>13.79002825419108</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-02-09_05-32-37</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>300</v>
+      </c>
+      <c r="E118" t="n">
+        <v>240</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="L118" t="n">
+        <v>100</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>10.9871891203784</v>
+      </c>
+      <c r="R118" t="n">
+        <v>13.45945008595785</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-02-09_06-40-10</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>300</v>
+      </c>
+      <c r="E119" t="n">
+        <v>240</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="L119" t="n">
+        <v>100</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>33.3779036747364</v>
+      </c>
+      <c r="R119" t="n">
+        <v>14.70025014877319</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-02-09_07-48-06</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>300</v>
+      </c>
+      <c r="E120" t="n">
+        <v>240</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="L120" t="n">
+        <v>100</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>14.58578928144076</v>
+      </c>
+      <c r="R120" t="n">
+        <v>14.79646841684977</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-02-09_08-55-08</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>300</v>
+      </c>
+      <c r="E121" t="n">
+        <v>240</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="L121" t="n">
+        <v>100</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>12.3291189043424</v>
+      </c>
+      <c r="R121" t="n">
+        <v>13.62544298171997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7285,6 +7285,58 @@
         <v>13.62544298171997</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-02-09_10-03-07</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>300</v>
+      </c>
+      <c r="E122" t="n">
+        <v>240</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="L122" t="n">
+        <v>100</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>11.65835744030071</v>
+      </c>
+      <c r="R122" t="n">
+        <v>13.43270683288574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7337,6 +7337,162 @@
         <v>13.43270683288574</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-02-09_11-08-21</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>300</v>
+      </c>
+      <c r="E123" t="n">
+        <v>240</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="L123" t="n">
+        <v>100</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>10.7485977494624</v>
+      </c>
+      <c r="R123" t="n">
+        <v>13.49919064839681</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-02-09_12-16-03</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>300</v>
+      </c>
+      <c r="E124" t="n">
+        <v>240</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="L124" t="n">
+        <v>100</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>10.8440967013648</v>
+      </c>
+      <c r="R124" t="n">
+        <v>13.68820269902547</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-02-09_13-20-52</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>300</v>
+      </c>
+      <c r="E125" t="n">
+        <v>240</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="L125" t="n">
+        <v>100</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>10.90376469721143</v>
+      </c>
+      <c r="R125" t="n">
+        <v>13.05017471313477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7493,6 +7493,318 @@
         <v>13.05017471313477</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-02-09_14-40-46</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>300</v>
+      </c>
+      <c r="E126" t="n">
+        <v>240</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="L126" t="n">
+        <v>100</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>41.14809662441038</v>
+      </c>
+      <c r="R126" t="n">
+        <v>17.40942398707072</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-02-09_15-49-44</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>300</v>
+      </c>
+      <c r="E127" t="n">
+        <v>240</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="L127" t="n">
+        <v>100</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>38.34841332980716</v>
+      </c>
+      <c r="R127" t="n">
+        <v>16.7335311571757</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-02-09_16-59-17</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>300</v>
+      </c>
+      <c r="E128" t="n">
+        <v>240</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="L128" t="n">
+        <v>100</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>38.03261025076304</v>
+      </c>
+      <c r="R128" t="n">
+        <v>16.41552146275838</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-02-09_18-07-00</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>300</v>
+      </c>
+      <c r="E129" t="n">
+        <v>240</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="L129" t="n">
+        <v>100</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>39.93670444298002</v>
+      </c>
+      <c r="R129" t="n">
+        <v>16.90966653823853</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-02-09_19-17-19</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>300</v>
+      </c>
+      <c r="E130" t="n">
+        <v>240</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="L130" t="n">
+        <v>100</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>37.61273498196449</v>
+      </c>
+      <c r="R130" t="n">
+        <v>17.40923595428467</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-02-09_20-26-29</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>300</v>
+      </c>
+      <c r="E131" t="n">
+        <v>240</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0.00085</v>
+      </c>
+      <c r="L131" t="n">
+        <v>100</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>10.04940772188887</v>
+      </c>
+      <c r="R131" t="n">
+        <v>13.24258820215861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7805,6 +7805,422 @@
         <v>13.24258820215861</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-02-09_21-35-52</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>300</v>
+      </c>
+      <c r="E132" t="n">
+        <v>240</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="L132" t="n">
+        <v>100</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>10.49146090390018</v>
+      </c>
+      <c r="R132" t="n">
+        <v>12.68266582489014</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-02-09_22-46-31</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>300</v>
+      </c>
+      <c r="E133" t="n">
+        <v>240</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="L133" t="n">
+        <v>100</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>10.33465840364005</v>
+      </c>
+      <c r="R133" t="n">
+        <v>13.73522186279297</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-02-09_23-57-36</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>300</v>
+      </c>
+      <c r="E134" t="n">
+        <v>240</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>0.00115</v>
+      </c>
+      <c r="L134" t="n">
+        <v>100</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>11.00231798110606</v>
+      </c>
+      <c r="R134" t="n">
+        <v>13.47570244471232</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-02-10_01-07-17</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>300</v>
+      </c>
+      <c r="E135" t="n">
+        <v>240</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="L135" t="n">
+        <v>100</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>10.28921898303101</v>
+      </c>
+      <c r="R135" t="n">
+        <v>13.70447285970052</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-02-10_02-14-49</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>300</v>
+      </c>
+      <c r="E136" t="n">
+        <v>240</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="L136" t="n">
+        <v>100</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>10.52984503979953</v>
+      </c>
+      <c r="R136" t="n">
+        <v>12.61173868179321</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-02-10_03-23-49</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>300</v>
+      </c>
+      <c r="E137" t="n">
+        <v>240</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="L137" t="n">
+        <v>100</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>10.30753169763631</v>
+      </c>
+      <c r="R137" t="n">
+        <v>12.81060822804769</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-02-10_04-32-28</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>300</v>
+      </c>
+      <c r="E138" t="n">
+        <v>240</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L138" t="n">
+        <v>100</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>10.440873665762</v>
+      </c>
+      <c r="R138" t="n">
+        <v>12.95110988616943</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-02-10_05-41-56</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>300</v>
+      </c>
+      <c r="E139" t="n">
+        <v>240</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="L139" t="n">
+        <v>100</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>9.520826875303483</v>
+      </c>
+      <c r="R139" t="n">
+        <v>13.27968104680379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8221,6 +8221,110 @@
         <v>13.27968104680379</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-02-10_06-47-31</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>300</v>
+      </c>
+      <c r="E140" t="n">
+        <v>240</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="L140" t="n">
+        <v>100</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>10.4761454828836</v>
+      </c>
+      <c r="R140" t="n">
+        <v>14.52193212509155</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-02-10_07-51-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>300</v>
+      </c>
+      <c r="E141" t="n">
+        <v>240</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="L141" t="n">
+        <v>100</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>9.62166047599022</v>
+      </c>
+      <c r="R141" t="n">
+        <v>12.27407248814901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8325,6 +8325,222 @@
         <v>12.27407248814901</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-02-10_08-55-41</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>300</v>
+      </c>
+      <c r="E142" t="n">
+        <v>240</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0.00185</v>
+      </c>
+      <c r="L142" t="n">
+        <v>100</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>9.939742923444436</v>
+      </c>
+      <c r="R142" t="n">
+        <v>11.97058359781901</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-02-10_10-00-38</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>300</v>
+      </c>
+      <c r="E143" t="n">
+        <v>240</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="L143" t="n">
+        <v>100</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>10.36650141336015</v>
+      </c>
+      <c r="R143" t="n">
+        <v>13.72677930196126</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-02-10_11-54-07</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>300</v>
+      </c>
+      <c r="E144" t="n">
+        <v>240</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="L144" t="n">
+        <v>100</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>24.62832264367251</v>
+      </c>
+      <c r="R144" t="n">
+        <v>15.30301909976535</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-02-10_15-09-18</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>300</v>
+      </c>
+      <c r="E145" t="n">
+        <v>240</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="L145" t="n">
+        <v>100</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>21.46634518773709</v>
+      </c>
+      <c r="R145" t="n">
+        <v>15.19646983676487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,6 +8541,62 @@
         <v>15.19646983676487</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-02-10_18-17-26</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>300</v>
+      </c>
+      <c r="E146" t="n">
+        <v>240</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="L146" t="n">
+        <v>100</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>15.48393460717755</v>
+      </c>
+      <c r="R146" t="n">
+        <v>14.77699825498793</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8597,6 +8597,62 @@
         <v>14.77699825498793</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-02-10_21-26-11</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>300</v>
+      </c>
+      <c r="E147" t="n">
+        <v>240</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="L147" t="n">
+        <v>100</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>12.80815349271084</v>
+      </c>
+      <c r="R147" t="n">
+        <v>14.57471964094374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8653,6 +8653,230 @@
         <v>14.57471964094374</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-02-11_00-40-28</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>300</v>
+      </c>
+      <c r="E148" t="n">
+        <v>240</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="L148" t="n">
+        <v>100</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>10.94063240011739</v>
+      </c>
+      <c r="R148" t="n">
+        <v>14.04200469122993</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-02-11_04-05-57</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>300</v>
+      </c>
+      <c r="E149" t="n">
+        <v>240</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="L149" t="n">
+        <v>100</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>10.81161465140116</v>
+      </c>
+      <c r="R149" t="n">
+        <v>14.19199260075887</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-02-11_07-41-15</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>300</v>
+      </c>
+      <c r="E150" t="n">
+        <v>240</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="L150" t="n">
+        <v>100</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>10.06423871134229</v>
+      </c>
+      <c r="R150" t="n">
+        <v>14.28411314222548</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-02-11_11-07-26</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>300</v>
+      </c>
+      <c r="E151" t="n">
+        <v>240</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="L151" t="n">
+        <v>100</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>&lt;function angle_loss at 0x7fb4a85e4040&gt;</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>Inc, PA</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>10.02158963918509</v>
+      </c>
+      <c r="R151" t="n">
+        <v>13.71451187133789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8877,6 +8877,238 @@
         <v>13.71451187133789</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-02-14_17-53-51</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>100</v>
+      </c>
+      <c r="D152" t="n">
+        <v>64</v>
+      </c>
+      <c r="E152" t="n">
+        <v>240</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="L152" t="n">
+        <v>10</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-02-14_18-05-35</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>100</v>
+      </c>
+      <c r="D153" t="n">
+        <v>256</v>
+      </c>
+      <c r="E153" t="n">
+        <v>240</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>7204</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1802</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="L153" t="n">
+        <v>10</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-02-14_20-03-00</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>100</v>
+      </c>
+      <c r="D154" t="n">
+        <v>256</v>
+      </c>
+      <c r="E154" t="n">
+        <v>240</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="L154" t="n">
+        <v>10</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-02-14_20-16-58</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1.204143322281799</v>
+      </c>
+      <c r="D155" t="n">
+        <v>256</v>
+      </c>
+      <c r="E155" t="n">
+        <v>240</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="L155" t="n">
+        <v>10</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9109,6 +9109,64 @@
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-02-14_20-52-22</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.5009868143224258</v>
+      </c>
+      <c r="D156" t="n">
+        <v>256</v>
+      </c>
+      <c r="E156" t="n">
+        <v>240</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I156" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="L156" t="n">
+        <v>50</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9167,6 +9167,64 @@
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-02-14_22-45-19</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2.430082891536236</v>
+      </c>
+      <c r="D157" t="n">
+        <v>256</v>
+      </c>
+      <c r="E157" t="n">
+        <v>240</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9225,6 +9225,702 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-23-39</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>100</v>
+      </c>
+      <c r="D158" t="n">
+        <v>256</v>
+      </c>
+      <c r="E158" t="n">
+        <v>240</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-27-43</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>3.080264446560671</v>
+      </c>
+      <c r="D159" t="n">
+        <v>256</v>
+      </c>
+      <c r="E159" t="n">
+        <v>240</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-29-07</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3.119861362776343</v>
+      </c>
+      <c r="D160" t="n">
+        <v>256</v>
+      </c>
+      <c r="E160" t="n">
+        <v>240</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-30-27</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>100</v>
+      </c>
+      <c r="D161" t="n">
+        <v>256</v>
+      </c>
+      <c r="E161" t="n">
+        <v>240</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I161" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-31-46</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2.264286361739514</v>
+      </c>
+      <c r="D162" t="n">
+        <v>256</v>
+      </c>
+      <c r="E162" t="n">
+        <v>240</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-33-03</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2.674935201112647</v>
+      </c>
+      <c r="D163" t="n">
+        <v>256</v>
+      </c>
+      <c r="E163" t="n">
+        <v>240</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-34-21</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>100</v>
+      </c>
+      <c r="D164" t="n">
+        <v>256</v>
+      </c>
+      <c r="E164" t="n">
+        <v>240</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-35-41</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1.539368229208833</v>
+      </c>
+      <c r="D165" t="n">
+        <v>256</v>
+      </c>
+      <c r="E165" t="n">
+        <v>240</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I165" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-02-14_23-37-00</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1.885518462987938</v>
+      </c>
+      <c r="D166" t="n">
+        <v>256</v>
+      </c>
+      <c r="E166" t="n">
+        <v>240</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-02-15_00-09-45</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.7728534277768421</v>
+      </c>
+      <c r="D167" t="n">
+        <v>256</v>
+      </c>
+      <c r="E167" t="n">
+        <v>240</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="L167" t="n">
+        <v>100</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-02-15_01-42-34</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6134739162126001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>256</v>
+      </c>
+      <c r="E168" t="n">
+        <v>240</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="L168" t="n">
+        <v>100</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-02-15_03-11-34</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.7435004794094671</v>
+      </c>
+      <c r="D169" t="n">
+        <v>256</v>
+      </c>
+      <c r="E169" t="n">
+        <v>240</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="L169" t="n">
+        <v>100</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R169"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9921,6 +9921,64 @@
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-02-15_09-50-20</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.6801658096708783</v>
+      </c>
+      <c r="D170" t="n">
+        <v>256</v>
+      </c>
+      <c r="E170" t="n">
+        <v>240</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I170" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="L170" t="n">
+        <v>100</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_recognition/results.xlsx
+++ b/logs_recognition/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9979,6 +9979,122 @@
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-02-15_11-28-49</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.749802246347875</v>
+      </c>
+      <c r="D171" t="n">
+        <v>256</v>
+      </c>
+      <c r="E171" t="n">
+        <v>240</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I171" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="L171" t="n">
+        <v>100</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-02-15_13-02-25</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.5702063103766903</v>
+      </c>
+      <c r="D172" t="n">
+        <v>256</v>
+      </c>
+      <c r="E172" t="n">
+        <v>240</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>21614</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5404</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="L172" t="n">
+        <v>100</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
